--- a/_posts/2022-05-03-good-eatins/Eat_Data.xlsx
+++ b/_posts/2022-05-03-good-eatins/Eat_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/Jake_Ford_Blog/_posts/2022-05-03-good-eatins/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jacobford/Documents/GitHub/forddataforge/_posts/2022-05-03-good-eatins/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7531D03-86C2-DB4F-93B7-06193D866B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5AB326-43B1-2348-922C-969029261AD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="18660" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -312,6 +312,15 @@
   </si>
   <si>
     <t>Pizzeria Mercato</t>
+  </si>
+  <si>
+    <t>Zweli's</t>
+  </si>
+  <si>
+    <t>Dovi Chicken, Lemonade</t>
+  </si>
+  <si>
+    <t>Zimbabwean</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="A31" sqref="A31:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1247,6 +1256,26 @@
         <v>-79.076000725755407</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31">
+        <v>35.96331</v>
+      </c>
+      <c r="F31">
+        <v>-78.9786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
